--- a/REGULAR/ASSESSOR/BAYOT, RUMER MALABANAN.xlsx
+++ b/REGULAR/ASSESSOR/BAYOT, RUMER MALABANAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="129">
   <si>
     <t>PERIOD</t>
   </si>
@@ -351,6 +351,75 @@
   </si>
   <si>
     <t>11/28,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/18,27-29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-47)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-5-12)</t>
+  </si>
+  <si>
+    <t>10/24,26,27,31/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>9/25-27/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-2)</t>
+  </si>
+  <si>
+    <t>8/14,18,24,31/2023</t>
+  </si>
+  <si>
+    <t>UT(0-7-10)</t>
+  </si>
+  <si>
+    <t>7/10,18,31/2023</t>
+  </si>
+  <si>
+    <t>UT(0-5-4)</t>
+  </si>
+  <si>
+    <t>6/15,16,19,23/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-40)</t>
+  </si>
+  <si>
+    <t>UT(0-3-51)</t>
+  </si>
+  <si>
+    <t>UT(0-5-27)</t>
+  </si>
+  <si>
+    <t>2/3,27/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-19)</t>
+  </si>
+  <si>
+    <t>A(9-0-0)</t>
+  </si>
+  <si>
+    <t>1/3,6,9,13,20,23,24,26,30/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-39)</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1111,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K160" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K172" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1371,12 +1440,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K160"/>
+  <dimension ref="A2:K172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A118" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
+      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1608,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.598000000000006</v>
+        <v>22.39500000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1549,7 +1618,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>73.25</v>
+        <v>74.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4093,11 +4162,15 @@
       <c r="A126" s="40">
         <v>44927</v>
       </c>
-      <c r="B126" s="20"/>
+      <c r="B126" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C126" s="13">
         <v>1.25</v>
       </c>
-      <c r="D126" s="39"/>
+      <c r="D126" s="39">
+        <v>9</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
       <c r="G126" s="13">
@@ -4107,22 +4180,24 @@
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D127" s="39"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39">
+        <v>0.20600000000000002</v>
+      </c>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
@@ -4131,44 +4206,44 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
       </c>
-      <c r="D128" s="39"/>
+      <c r="D128" s="39">
+        <v>2</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
       <c r="G128" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H128" s="39">
-        <v>1</v>
-      </c>
+      <c r="H128" s="39"/>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="49">
-        <v>44991</v>
+      <c r="K128" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D129" s="39"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
@@ -4177,9 +4252,11 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B130" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C130" s="13">
         <v>1.25</v>
       </c>
@@ -4190,40 +4267,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H130" s="39"/>
+      <c r="H130" s="39">
+        <v>1</v>
+      </c>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
+      <c r="K130" s="49">
+        <v>44991</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D131" s="39"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39">
+        <v>0.68100000000000005</v>
+      </c>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="49"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B132" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C132" s="13">
         <v>1.25</v>
       </c>
-      <c r="D132" s="39"/>
+      <c r="D132" s="39">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
       <c r="G132" s="13">
@@ -4237,13 +4322,17 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B133" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C133" s="13">
         <v>1.25</v>
       </c>
-      <c r="D133" s="39"/>
+      <c r="D133" s="39">
+        <v>0.48099999999999998</v>
+      </c>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
       <c r="G133" s="13">
@@ -4257,13 +4346,17 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B134" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C134" s="13">
         <v>1.25</v>
       </c>
-      <c r="D134" s="39"/>
+      <c r="D134" s="39">
+        <v>4</v>
+      </c>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
       <c r="G134" s="13">
@@ -4273,22 +4366,24 @@
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
+      <c r="K134" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D135" s="39"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39">
+        <v>0.20800000000000002</v>
+      </c>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
@@ -4297,37 +4392,39 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45231</v>
+        <v>45108</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C136" s="13">
         <v>1.25</v>
       </c>
-      <c r="D136" s="39"/>
+      <c r="D136" s="39">
+        <v>3</v>
+      </c>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
       <c r="G136" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H136" s="39">
-        <v>2</v>
-      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
       <c r="K136" s="20" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B137" s="20"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
+      <c r="D137" s="39">
+        <v>0.63300000000000001</v>
+      </c>
       <c r="E137" s="9"/>
       <c r="F137" s="20"/>
       <c r="G137" s="13" t="str">
@@ -4341,29 +4438,39 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="39"/>
+        <v>45139</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C138" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D138" s="39">
+        <v>4</v>
+      </c>
       <c r="E138" s="9"/>
       <c r="F138" s="20"/>
-      <c r="G138" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G138" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
+      <c r="K138" s="20" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B139" s="20"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="C139" s="13"/>
-      <c r="D139" s="39"/>
+      <c r="D139" s="39">
+        <v>0.89600000000000002</v>
+      </c>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
       <c r="G139" s="13" t="str">
@@ -4377,29 +4484,39 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B140" s="20"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="39"/>
+        <v>45170</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C140" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D140" s="39">
+        <v>3</v>
+      </c>
       <c r="E140" s="9"/>
       <c r="F140" s="20"/>
-      <c r="G140" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G140" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H140" s="39"/>
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
-      <c r="K140" s="20"/>
+      <c r="K140" s="20" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B141" s="20"/>
+      <c r="A141" s="40"/>
+      <c r="B141" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="C141" s="13"/>
-      <c r="D141" s="39"/>
+      <c r="D141" s="39">
+        <v>0.504</v>
+      </c>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
       <c r="G141" s="13" t="str">
@@ -4413,29 +4530,39 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B142" s="20"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D142" s="39">
+        <v>4</v>
+      </c>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G142" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="20"/>
+      <c r="K142" s="20" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B143" s="20"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C143" s="13"/>
-      <c r="D143" s="39"/>
+      <c r="D143" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
       <c r="G143" s="13" t="str">
@@ -4449,29 +4576,39 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D144" s="39"/>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
-      <c r="G144" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="39"/>
+      <c r="G144" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H144" s="39">
+        <v>2</v>
+      </c>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="20"/>
+      <c r="K144" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B145" s="20"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C145" s="13"/>
-      <c r="D145" s="39"/>
+      <c r="D145" s="39">
+        <v>1</v>
+      </c>
       <c r="E145" s="9"/>
       <c r="F145" s="20"/>
       <c r="G145" s="13" t="str">
@@ -4481,15 +4618,19 @@
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="20"/>
+      <c r="K145" s="49">
+        <v>45250</v>
+      </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B146" s="20"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C146" s="13"/>
-      <c r="D146" s="39"/>
+      <c r="D146" s="39">
+        <v>0.65</v>
+      </c>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
       <c r="G146" s="13" t="str">
@@ -4499,33 +4640,43 @@
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
-      <c r="K146" s="20"/>
+      <c r="K146" s="49"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B147" s="20"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D147" s="39">
+        <v>4</v>
+      </c>
       <c r="E147" s="9"/>
       <c r="F147" s="20"/>
-      <c r="G147" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G147" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H147" s="39"/>
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="20"/>
+      <c r="K147" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40">
-        <v>45597</v>
-      </c>
-      <c r="B148" s="20"/>
+      <c r="A148" s="40"/>
+      <c r="B148" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C148" s="13"/>
-      <c r="D148" s="39"/>
+      <c r="D148" s="39">
+        <v>0.59799999999999998</v>
+      </c>
       <c r="E148" s="9"/>
       <c r="F148" s="20"/>
       <c r="G148" s="13" t="str">
@@ -4538,8 +4689,8 @@
       <c r="K148" s="20"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="40">
-        <v>45627</v>
+      <c r="A149" s="48" t="s">
+        <v>106</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4557,7 +4708,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>45658</v>
+        <v>45292</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4575,7 +4726,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>45689</v>
+        <v>45323</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4593,7 +4744,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>45717</v>
+        <v>45352</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4611,7 +4762,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>45748</v>
+        <v>45383</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4629,7 +4780,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>45778</v>
+        <v>45413</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4647,7 +4798,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>45809</v>
+        <v>45444</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4665,7 +4816,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>45839</v>
+        <v>45474</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4683,7 +4834,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>45870</v>
+        <v>45505</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4701,7 +4852,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>45901</v>
+        <v>45536</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4718,7 +4869,9 @@
       <c r="K158" s="20"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
+      <c r="A159" s="40">
+        <v>45566</v>
+      </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
       <c r="D159" s="39"/>
@@ -4734,20 +4887,234 @@
       <c r="K159" s="20"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="41"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="43"/>
+      <c r="A160" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B160" s="20"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="42" t="str">
+      <c r="F160" s="20"/>
+      <c r="G160" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H160" s="43"/>
+      <c r="H160" s="39"/>
       <c r="I160" s="9"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="15"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="20"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B162" s="20"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H162" s="39"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="20"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B163" s="20"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H163" s="39"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="20"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B164" s="20"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="39"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="20"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="40">
+        <v>45748</v>
+      </c>
+      <c r="B165" s="20"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H165" s="39"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="20"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="40">
+        <v>45778</v>
+      </c>
+      <c r="B166" s="20"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H166" s="39"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="20"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="40">
+        <v>45809</v>
+      </c>
+      <c r="B167" s="20"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H167" s="39"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="20"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="40">
+        <v>45839</v>
+      </c>
+      <c r="B168" s="20"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H168" s="39"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="20"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B169" s="20"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H169" s="39"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="20"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="40">
+        <v>45901</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H170" s="39"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="20"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="40"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H171" s="39"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="20"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="41"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="43"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H172" s="43"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4863,11 +5230,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.14000000000000001</v>
+        <v>0.20600000000000002</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -4916,7 +5283,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>133.84800000000001</v>
+        <v>96.89500000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ASSESSOR/BAYOT, RUMER MALABANAN.xlsx
+++ b/REGULAR/ASSESSOR/BAYOT, RUMER MALABANAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ASSESSOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ASSESSOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A2C271-46AC-4033-A87F-2D0C319FF0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>PERIOD</t>
   </si>
@@ -302,27 +303,18 @@
     <t>TOTAL LEAVE BALANCE</t>
   </si>
   <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
     <t>12/22,23/2022</t>
   </si>
   <si>
     <t>UT(0-2-31)</t>
   </si>
   <si>
-    <t>11/7,18/2022</t>
-  </si>
-  <si>
     <t>UT(0-2-28)</t>
   </si>
   <si>
     <t>UT(0-0-35)</t>
   </si>
   <si>
-    <t>9/7,27/2022</t>
-  </si>
-  <si>
     <t>UT(0-1-30)</t>
   </si>
   <si>
@@ -335,18 +327,9 @@
     <t>UT(0-3-9)</t>
   </si>
   <si>
-    <t>A(4-0-0)</t>
-  </si>
-  <si>
-    <t>5/10,26,27,31/2022</t>
-  </si>
-  <si>
     <t>UT(0-5-9)</t>
   </si>
   <si>
-    <t>4/28,29/2022</t>
-  </si>
-  <si>
     <t>UT(0-1-7)</t>
   </si>
   <si>
@@ -362,70 +345,46 @@
     <t>UT(0-4-47)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-5-12)</t>
   </si>
   <si>
-    <t>10/24,26,27,31/2023</t>
-  </si>
-  <si>
     <t>UT(0-2-0)</t>
   </si>
   <si>
-    <t>A(3-0-0)</t>
-  </si>
-  <si>
-    <t>9/25-27/2023</t>
-  </si>
-  <si>
-    <t>UT(0-4-2)</t>
-  </si>
-  <si>
-    <t>8/14,18,24,31/2023</t>
-  </si>
-  <si>
-    <t>UT(0-7-10)</t>
-  </si>
-  <si>
-    <t>7/10,18,31/2023</t>
-  </si>
-  <si>
-    <t>UT(0-5-4)</t>
-  </si>
-  <si>
-    <t>6/15,16,19,23/2023</t>
-  </si>
-  <si>
     <t>UT(0-1-40)</t>
   </si>
   <si>
     <t>UT(0-3-51)</t>
   </si>
   <si>
-    <t>UT(0-5-27)</t>
-  </si>
-  <si>
-    <t>2/3,27/2023</t>
-  </si>
-  <si>
     <t>UT(0-2-19)</t>
   </si>
   <si>
-    <t>A(9-0-0)</t>
-  </si>
-  <si>
-    <t>1/3,6,9,13,20,23,24,26,30/2023</t>
-  </si>
-  <si>
     <t>UT(0-1-39)</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-2)</t>
+  </si>
+  <si>
+    <t>UT(0-1-10)</t>
+  </si>
+  <si>
+    <t>UT(0-1-4)</t>
+  </si>
+  <si>
+    <t>UT(0-2-27)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1094,7 +1053,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1111,25 +1070,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K172" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K161" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1436,34 +1395,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K172"/>
+  <dimension ref="A2:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A118" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A121" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F132" sqref="F132"/>
+      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1443,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1465,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1526,7 +1485,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1534,7 +1493,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1547,7 +1506,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1564,7 +1523,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1608,7 +1567,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.39500000000001</v>
+        <v>64.52000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1618,12 +1577,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>74.5</v>
+        <v>75.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1645,7 +1604,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>42552</v>
       </c>
@@ -1669,7 +1628,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>42583</v>
       </c>
@@ -1693,7 +1652,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>42614</v>
       </c>
@@ -1717,7 +1676,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>42644</v>
       </c>
@@ -1741,7 +1700,7 @@
         <v>42650</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -1758,7 +1717,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>42675</v>
       </c>
@@ -1782,7 +1741,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>42705</v>
       </c>
@@ -1806,7 +1765,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>51</v>
       </c>
@@ -1824,7 +1783,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>42736</v>
       </c>
@@ -1848,7 +1807,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>42767</v>
       </c>
@@ -1874,7 +1833,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>53</v>
@@ -1893,7 +1852,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -1910,7 +1869,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>42795</v>
       </c>
@@ -1934,7 +1893,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>55</v>
@@ -1951,7 +1910,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>42826</v>
       </c>
@@ -1977,7 +1936,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>57</v>
@@ -1994,7 +1953,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>42856</v>
       </c>
@@ -2018,7 +1977,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>42887</v>
       </c>
@@ -2042,7 +2001,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>59</v>
@@ -2059,7 +2018,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>42917</v>
       </c>
@@ -2085,7 +2044,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>61</v>
@@ -2102,7 +2061,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>42948</v>
       </c>
@@ -2126,7 +2085,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>42979</v>
       </c>
@@ -2150,7 +2109,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43009</v>
       </c>
@@ -2176,7 +2135,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>65</v>
@@ -2193,7 +2152,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43040</v>
       </c>
@@ -2213,7 +2172,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43070</v>
       </c>
@@ -2237,7 +2196,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
         <v>60</v>
       </c>
@@ -2255,7 +2214,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43101</v>
       </c>
@@ -2281,7 +2240,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>53</v>
@@ -2300,7 +2259,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43132</v>
       </c>
@@ -2326,7 +2285,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>68</v>
@@ -2343,7 +2302,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43160</v>
       </c>
@@ -2369,7 +2328,7 @@
         <v>43171</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43191</v>
       </c>
@@ -2395,7 +2354,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>53</v>
@@ -2414,7 +2373,7 @@
         <v>43234</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43221</v>
       </c>
@@ -2438,7 +2397,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43252</v>
       </c>
@@ -2464,7 +2423,7 @@
         <v>43270</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43282</v>
       </c>
@@ -2490,7 +2449,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43313</v>
       </c>
@@ -2516,7 +2475,7 @@
         <v>43332</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43344</v>
       </c>
@@ -2540,7 +2499,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43374</v>
       </c>
@@ -2566,7 +2525,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43405</v>
       </c>
@@ -2592,7 +2551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43435</v>
       </c>
@@ -2616,7 +2575,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="s">
         <v>71</v>
       </c>
@@ -2634,7 +2593,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43466</v>
       </c>
@@ -2660,7 +2619,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43497</v>
       </c>
@@ -2686,7 +2645,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43525</v>
       </c>
@@ -2706,7 +2665,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43556</v>
       </c>
@@ -2732,7 +2691,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43586</v>
       </c>
@@ -2758,7 +2717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>47</v>
@@ -2775,7 +2734,7 @@
         <v>43634</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>43617</v>
       </c>
@@ -2795,7 +2754,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>43647</v>
       </c>
@@ -2815,7 +2774,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>43678</v>
       </c>
@@ -2835,7 +2794,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>43709</v>
       </c>
@@ -2855,7 +2814,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>43739</v>
       </c>
@@ -2881,7 +2840,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -2900,7 +2859,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>43770</v>
       </c>
@@ -2920,7 +2879,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>43800</v>
       </c>
@@ -2946,7 +2905,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>64</v>
@@ -2965,7 +2924,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>56</v>
@@ -2984,7 +2943,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>76</v>
@@ -3001,7 +2960,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>75</v>
       </c>
@@ -3019,7 +2978,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>43831</v>
       </c>
@@ -3043,7 +3002,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>64</v>
@@ -3060,7 +3019,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>43862</v>
       </c>
@@ -3080,7 +3039,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>43891</v>
       </c>
@@ -3100,7 +3059,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>43922</v>
       </c>
@@ -3120,7 +3079,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>43952</v>
       </c>
@@ -3140,7 +3099,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>43983</v>
       </c>
@@ -3164,7 +3123,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44013</v>
       </c>
@@ -3184,7 +3143,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44044</v>
       </c>
@@ -3204,7 +3163,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44075</v>
       </c>
@@ -3228,7 +3187,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44105</v>
       </c>
@@ -3248,7 +3207,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44136</v>
       </c>
@@ -3268,7 +3227,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44166</v>
       </c>
@@ -3292,7 +3251,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>82</v>
       </c>
@@ -3310,7 +3269,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44197</v>
       </c>
@@ -3330,7 +3289,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44228</v>
       </c>
@@ -3350,7 +3309,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44256</v>
       </c>
@@ -3370,7 +3329,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44287</v>
       </c>
@@ -3390,7 +3349,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44317</v>
       </c>
@@ -3410,7 +3369,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44348</v>
       </c>
@@ -3430,7 +3389,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44378</v>
       </c>
@@ -3450,7 +3409,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44409</v>
       </c>
@@ -3470,7 +3429,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44440</v>
       </c>
@@ -3490,7 +3449,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44470</v>
       </c>
@@ -3510,7 +3469,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44501</v>
       </c>
@@ -3530,7 +3489,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44531</v>
       </c>
@@ -3554,7 +3513,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>83</v>
       </c>
@@ -3572,7 +3531,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44562</v>
       </c>
@@ -3592,7 +3551,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44593</v>
       </c>
@@ -3616,12 +3575,12 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44621</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C102" s="13">
         <v>1.25</v>
@@ -3640,7 +3599,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>44652</v>
       </c>
@@ -3666,41 +3625,41 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>44682</v>
+      </c>
       <c r="B104" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" s="13"/>
+        <v>97</v>
+      </c>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39">
-        <v>2</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="20"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
       </c>
-      <c r="D105" s="39">
-        <v>4</v>
-      </c>
+      <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13">
@@ -3710,18 +3669,18 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="49">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="39">
-        <v>0.64400000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
@@ -3732,11 +3691,11 @@
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="49"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>47</v>
@@ -3755,17 +3714,17 @@
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="49">
-        <v>44732</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="39">
-        <v>0.39400000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
@@ -3778,12 +3737,12 @@
       <c r="J108" s="11"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -3795,21 +3754,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H109" s="39"/>
+      <c r="H109" s="39">
+        <v>1</v>
+      </c>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="49">
-        <v>44771</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="39">
-        <v>0.27700000000000002</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
@@ -3822,86 +3783,86 @@
       <c r="J110" s="11"/>
       <c r="K110" s="49"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C111" s="13">
         <v>1.25</v>
       </c>
-      <c r="D111" s="39"/>
+      <c r="D111" s="39">
+        <v>0.18700000000000003</v>
+      </c>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H111" s="39">
-        <v>1</v>
-      </c>
+      <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="49">
-        <v>44790</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+      <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>44835</v>
+      </c>
       <c r="B112" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="39">
-        <v>0.23100000000000001</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="39"/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H112" s="39">
+        <v>1</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="49"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>44805</v>
-      </c>
+      <c r="K112" s="49">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C113" s="13">
-        <v>1.25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C113" s="13"/>
       <c r="D113" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="49">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="39">
-        <v>0.18700000000000003</v>
+        <v>7.3000000000000009E-2</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
@@ -3912,64 +3873,66 @@
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="49"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C115" s="13">
         <v>1.25</v>
       </c>
-      <c r="D115" s="39"/>
+      <c r="D115" s="39">
+        <v>0.308</v>
+      </c>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
       <c r="G115" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H115" s="39">
-        <v>1</v>
-      </c>
+      <c r="H115" s="39"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="49">
-        <v>44848</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <v>44896</v>
+      </c>
       <c r="B116" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="39">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C116" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D116" s="39"/>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="39"/>
+      <c r="G116" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H116" s="39">
+        <v>1</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
       <c r="K116" s="49">
-        <v>44858</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39">
-        <v>7.3000000000000009E-2</v>
+        <v>3</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
@@ -3980,42 +3943,40 @@
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="49"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>44866</v>
-      </c>
+      <c r="K117" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C118" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D118" s="39">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H118" s="39"/>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="39">
+        <v>1</v>
+      </c>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="49">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="39">
-        <v>0.308</v>
+        <v>2</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
@@ -4026,43 +3987,37 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40">
-        <v>44896</v>
-      </c>
+      <c r="K119" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C120" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D120" s="39"/>
+        <v>90</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="39">
+        <v>0.315</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H120" s="39">
-        <v>1</v>
-      </c>
+      <c r="G120" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="49">
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="K120" s="49"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" s="20"/>
       <c r="C121" s="13"/>
-      <c r="D121" s="39">
-        <v>3</v>
-      </c>
+      <c r="D121" s="39"/>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
       <c r="G121" s="13" t="str">
@@ -4072,81 +4027,91 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+      <c r="K121" s="49"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>44927</v>
+      </c>
       <c r="B122" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
+        <v>108</v>
+      </c>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D122" s="39">
+        <v>0.20600000000000002</v>
+      </c>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="39">
-        <v>1</v>
-      </c>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="49">
-        <v>44911</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+      <c r="K122" s="20"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <v>44958</v>
+      </c>
       <c r="B123" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="C123" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D123" s="39">
-        <v>2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G123" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+      <c r="K123" s="20"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>44986</v>
+      </c>
       <c r="B124" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="39">
-        <v>0.315</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C124" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D124" s="39"/>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39"/>
+      <c r="G124" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H124" s="39">
+        <v>1</v>
+      </c>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="49"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B125" s="20"/>
+      <c r="K124" s="49">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40"/>
+      <c r="B125" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
+      <c r="D125" s="39">
+        <v>0.30599999999999999</v>
+      </c>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
       <c r="G125" s="13" t="str">
@@ -4158,18 +4123,18 @@
       <c r="J125" s="11"/>
       <c r="K125" s="49"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="C126" s="13">
         <v>1.25</v>
       </c>
       <c r="D126" s="39">
-        <v>9</v>
+        <v>5.6000000000000015E-2</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
@@ -4180,42 +4145,44 @@
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="K126" s="20"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40">
+        <v>45047</v>
+      </c>
       <c r="B127" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C127" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D127" s="39">
-        <v>0.20600000000000002</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
       </c>
       <c r="D128" s="39">
-        <v>2</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
@@ -4226,88 +4193,92 @@
       <c r="H128" s="39"/>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="40">
+        <v>45108</v>
+      </c>
       <c r="B129" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C129" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D129" s="39">
-        <v>0.28999999999999998</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>44986</v>
+        <v>45139</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
       </c>
-      <c r="D130" s="39"/>
+      <c r="D130" s="39">
+        <v>0.14600000000000002</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="20"/>
       <c r="G130" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H130" s="39">
-        <v>1</v>
-      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
-      <c r="K130" s="49">
-        <v>44991</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
+        <v>45170</v>
+      </c>
       <c r="B131" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C131" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="39">
-        <v>0.68100000000000005</v>
+        <v>0.254</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="49"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>45017</v>
+        <v>45200</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C132" s="13">
         <v>1.25</v>
       </c>
       <c r="D132" s="39">
-        <v>5.6000000000000015E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
@@ -4320,64 +4291,62 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>45047</v>
+        <v>45231</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C133" s="13">
         <v>1.25</v>
       </c>
-      <c r="D133" s="39">
-        <v>0.48099999999999998</v>
-      </c>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
       <c r="G133" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H133" s="39"/>
+      <c r="H133" s="39">
+        <v>2</v>
+      </c>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40">
-        <v>45078</v>
-      </c>
+      <c r="K133" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C134" s="13">
-        <v>1.25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C134" s="13"/>
       <c r="D134" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
-      <c r="G134" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="49">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="39">
-        <v>0.20800000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
@@ -4388,20 +4357,20 @@
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K135" s="49"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>45108</v>
+        <v>45261</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C136" s="13">
         <v>1.25</v>
       </c>
       <c r="D136" s="39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
@@ -4413,17 +4382,17 @@
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
       <c r="K136" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="39">
-        <v>0.63300000000000001</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="20"/>
@@ -4436,87 +4405,69 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B138" s="20" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C138" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D138" s="39">
-        <v>4</v>
-      </c>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
       <c r="F138" s="20"/>
-      <c r="G138" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
-      <c r="K138" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
-      <c r="B139" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C139" s="13"/>
-      <c r="D139" s="39">
-        <v>0.89600000000000002</v>
-      </c>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D139" s="39"/>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
-      <c r="G139" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G139" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H139" s="39"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C140" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D140" s="39">
-        <v>3</v>
-      </c>
+        <v>45323</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
       <c r="E140" s="9"/>
       <c r="F140" s="20"/>
-      <c r="G140" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H140" s="39"/>
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
-      <c r="K140" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
-      <c r="B141" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B141" s="20"/>
       <c r="C141" s="13"/>
-      <c r="D141" s="39">
-        <v>0.504</v>
-      </c>
+      <c r="D141" s="39"/>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
       <c r="G141" s="13" t="str">
@@ -4528,41 +4479,31 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C142" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D142" s="39">
-        <v>4</v>
-      </c>
+        <v>45383</v>
+      </c>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
-      <c r="B143" s="20" t="s">
-        <v>112</v>
-      </c>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B143" s="20"/>
       <c r="C143" s="13"/>
-      <c r="D143" s="39">
-        <v>0.25</v>
-      </c>
+      <c r="D143" s="39"/>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
       <c r="G143" s="13" t="str">
@@ -4574,41 +4515,31 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C144" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45444</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
       <c r="D144" s="39"/>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
-      <c r="G144" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H144" s="39">
-        <v>2</v>
-      </c>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
-      <c r="B145" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B145" s="20"/>
       <c r="C145" s="13"/>
-      <c r="D145" s="39">
-        <v>1</v>
-      </c>
+      <c r="D145" s="39"/>
       <c r="E145" s="9"/>
       <c r="F145" s="20"/>
       <c r="G145" s="13" t="str">
@@ -4618,19 +4549,15 @@
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="49">
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
-      <c r="B146" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B146" s="20"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="39">
-        <v>0.65</v>
-      </c>
+      <c r="D146" s="39"/>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
       <c r="G146" s="13" t="str">
@@ -4640,43 +4567,33 @@
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
-      <c r="K146" s="49"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C147" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D147" s="39">
-        <v>4</v>
-      </c>
+        <v>45536</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
       <c r="E147" s="9"/>
       <c r="F147" s="20"/>
-      <c r="G147" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H147" s="39"/>
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
-      <c r="B148" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B148" s="20"/>
       <c r="C148" s="13"/>
-      <c r="D148" s="39">
-        <v>0.59799999999999998</v>
-      </c>
+      <c r="D148" s="39"/>
       <c r="E148" s="9"/>
       <c r="F148" s="20"/>
       <c r="G148" s="13" t="str">
@@ -4688,9 +4605,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="48" t="s">
-        <v>106</v>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="40">
+        <v>45597</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4706,9 +4623,9 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <v>45292</v>
+        <v>45627</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4724,9 +4641,9 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <v>45323</v>
+        <v>45658</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4742,9 +4659,9 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <v>45352</v>
+        <v>45689</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4760,9 +4677,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>45383</v>
+        <v>45717</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4778,9 +4695,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>45413</v>
+        <v>45748</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4796,9 +4713,9 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <v>45444</v>
+        <v>45778</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4814,9 +4731,9 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <v>45474</v>
+        <v>45809</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4832,9 +4749,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <v>45505</v>
+        <v>45839</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4850,9 +4767,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <v>45536</v>
+        <v>45870</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4868,9 +4785,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <v>45566</v>
+        <v>45901</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -4886,10 +4803,8 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40">
-        <v>45597</v>
-      </c>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
       <c r="D160" s="39"/>
@@ -4904,217 +4819,21 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="40">
-        <v>45627</v>
-      </c>
-      <c r="B161" s="20"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="39"/>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="41"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="43"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="13" t="str">
+      <c r="F161" s="15"/>
+      <c r="G161" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H161" s="39"/>
+      <c r="H161" s="43"/>
       <c r="I161" s="9"/>
-      <c r="J161" s="11"/>
-      <c r="K161" s="20"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="40">
-        <v>45658</v>
-      </c>
-      <c r="B162" s="20"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="20"/>
-      <c r="G162" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H162" s="39"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="11"/>
-      <c r="K162" s="20"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="40">
-        <v>45689</v>
-      </c>
-      <c r="B163" s="20"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H163" s="39"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="20"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="40">
-        <v>45717</v>
-      </c>
-      <c r="B164" s="20"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H164" s="39"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="20"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="40">
-        <v>45748</v>
-      </c>
-      <c r="B165" s="20"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H165" s="39"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="20"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="40">
-        <v>45778</v>
-      </c>
-      <c r="B166" s="20"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H166" s="39"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="11"/>
-      <c r="K166" s="20"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="40">
-        <v>45809</v>
-      </c>
-      <c r="B167" s="20"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H167" s="39"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="11"/>
-      <c r="K167" s="20"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="40">
-        <v>45839</v>
-      </c>
-      <c r="B168" s="20"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H168" s="39"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="11"/>
-      <c r="K168" s="20"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="40">
-        <v>45870</v>
-      </c>
-      <c r="B169" s="20"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H169" s="39"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="11"/>
-      <c r="K169" s="20"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="40">
-        <v>45901</v>
-      </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H170" s="39"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="40"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="9"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H171" s="39"/>
-      <c r="I171" s="9"/>
-      <c r="J171" s="11"/>
-      <c r="K171" s="20"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="41"/>
-      <c r="B172" s="15"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="43"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H172" s="43"/>
-      <c r="I172" s="9"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="15"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5131,10 +4850,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5157,28 +4876,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5191,7 +4910,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5220,21 +4939,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="11">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.20600000000000002</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -5246,17 +4965,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>88</v>
       </c>
@@ -5280,10 +4999,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>96.89500000000001</v>
+        <v>140.27000000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -5311,7 +5030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5337,7 +5056,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5363,7 +5082,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5389,7 +5108,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5415,7 +5134,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5441,7 +5160,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5467,7 +5186,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5493,7 +5212,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5513,7 +5232,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5533,7 +5252,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5553,7 +5272,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5574,7 +5293,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5595,7 +5314,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5616,7 +5335,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5637,7 +5356,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5658,7 +5377,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5679,7 +5398,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5700,7 +5419,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5721,7 +5440,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5742,7 +5461,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5763,7 +5482,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5784,7 +5503,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5805,7 +5524,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5826,7 +5545,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5847,7 +5566,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5868,7 +5587,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5889,7 +5608,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5910,7 +5629,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5931,7 +5650,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5952,7 +5671,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5973,7 +5692,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5982,7 +5701,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5991,7 +5710,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6000,7 +5719,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6009,7 +5728,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6018,7 +5737,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6027,7 +5746,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6036,7 +5755,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6045,7 +5764,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6054,7 +5773,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6063,7 +5782,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6072,7 +5791,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6081,7 +5800,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6090,7 +5809,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6099,7 +5818,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6108,7 +5827,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6117,7 +5836,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6126,7 +5845,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6135,7 +5854,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6144,7 +5863,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6153,7 +5872,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6162,7 +5881,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6171,7 +5890,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6180,7 +5899,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6189,7 +5908,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6198,7 +5917,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6207,7 +5926,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6216,7 +5935,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6225,7 +5944,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6234,7 +5953,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
